--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -466,12 +466,6 @@
     <t>Email_body</t>
   </si>
   <si>
-    <t>Hi All,
-Please find the attached report,
-Thanks &amp; Regards,
-QA Team</t>
-  </si>
-  <si>
     <t>sowmya.jagadish@primefocus.com;vamsikrishna.g@primefocus.com;aditya.kulshreshtha@primefocus.com;mansurabegum.tatwanagi@primefocus.com;manohar.r@primefocus.com;madhweshdas.cv@primefocus.com;bharath.doddagoudar@primefocus.com</t>
   </si>
   <si>
@@ -485,9 +479,6 @@
   </si>
   <si>
     <t>dubbing_flag</t>
-  </si>
-  <si>
-    <t>Automation Report-Till Ingest</t>
   </si>
   <si>
     <t>yes</t>
@@ -569,22 +560,30 @@
     <t>swagger_url_rightsDate</t>
   </si>
   <si>
-    <t>Wobody_Rightsdate</t>
+    <t>C:\common\ReportforRightsdate.xlsx</t>
   </si>
   <si>
     <t>{
   "titleId": "147871",
   "chapterId": "119",
   "networkIds": [
-    "TOON",
-    "TRUT"
+    "TOON"
   ],
   "distributorId": 6303,
   "rightsStartDate": "07-20-2021"
 }</t>
   </si>
   <si>
-    <t>C:\common\ReportforRightsdate.xlsx</t>
+    <t>Wobody_Rightsdate</t>
+  </si>
+  <si>
+    <t>Automation Report-Air and Rights date</t>
+  </si>
+  <si>
+    <t>Hi All,
+Please find the attached reportof Air and Rights Dates
+Thanks &amp; Regards,
+QA Team</t>
   </si>
 </sst>
 </file>
@@ -810,9 +809,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1104,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1154,10 +1153,10 @@
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1184,12 +1183,12 @@
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1216,12 +1215,12 @@
     </row>
     <row r="4" spans="1:26" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="39"/>
+        <v>159</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="38"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1250,8 +1249,8 @@
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>148</v>
+      <c r="B5" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>8</v>
@@ -1262,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>5</v>
@@ -1279,21 +1278,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="37" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="36" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="36"/>
+      <c r="B8" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:26" s="7" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>156</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="C9" s="21"/>
     </row>
@@ -1302,7 +1301,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="21"/>
     </row>
@@ -1365,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="21"/>
     </row>
@@ -1446,7 +1445,7 @@
         <v>65</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C26" s="21"/>
     </row>
@@ -1488,25 +1487,25 @@
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>152</v>
       </c>
       <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>41</v>
@@ -1527,7 +1526,7 @@
         <v>144</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C35" s="21"/>
     </row>
@@ -1536,7 +1535,7 @@
         <v>138</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C36" s="21"/>
     </row>
@@ -1563,7 +1562,7 @@
         <v>143</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="21"/>
     </row>
